--- a/data/hotels_by_city/Dallas/Dallas_shard_27.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_27.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="876">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jw9859351</t>
+  </si>
+  <si>
     <t>05/25/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>i stayed this place cause i had to so some training in the town and best western offer to have training at there breakfast room for free so we try it and it was turn up to great.they offer refreshment to all the people attending the training and i was surprise with the service.thank you bob and tommy for having our safty training hope we can do more busineess in futureMore</t>
   </si>
   <si>
+    <t>Sandra W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r549881968-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>we have stayed here many times and will continue to stay here. I tend to be a little colder when I sleep I just called the office and asked for another blanket and it was no problem. The staff is always so very kind and caring.More</t>
   </si>
   <si>
+    <t>laura h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r571142940-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Everything was great. It was small area and quaint. No noise and peaceful. Check in and check out was just right .The security light at best western are bright and on all night. It was nice that we get to park out side of my room. More</t>
   </si>
   <si>
+    <t>randi l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r570801954-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>We were there last year for canton flee market and hotel update the room with new furniture and beds.Talking to general manager and he mention that they still doing more remodeling.Rate was great and new stuff coming to town is niceGreta work beat western staffMore</t>
   </si>
   <si>
+    <t>Monty M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r564303370-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>Booked for 3 nights to do the Caton trades day thing. Room was OK but each evening people were "tailgating" in the parking lot complete with grills and dogs. I was awakened on the second morning at 5:00 am with large dogs barking incessantly until about 7:30 am. I decided to move on and not stay the 3rd night and was told by Expedia it was up to the hotel to determine if the would cancel the 3rd night but the hotel refused so I cut my losses and left anyway. I would not recommend this hotel at all.More</t>
   </si>
   <si>
+    <t>JOE H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r552136720-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>Lighting upgrade poorly done, so much so that the flickering would give you a headache. Toilet seat was broken, the carpet was old and stained, security locks missing parts, used chair as deadbolt. I was awoken by a crawling friend. The only good thing was the water pressure was great and there was plenty of hot water.More</t>
   </si>
   <si>
+    <t>Scott B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r549359133-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>This was very surprising. I have stayed at this property before and the people at the front desk are always very nice people. Good hard-working Americans. At check in my wife's bed pillows had somebody else's hair on them .  Before I left the hotel in the morning two cockroaches, two ants, and something I couldn't identify, we're all on my bed, in my bed with me. This type of situation may be acceptable in India, but we are in Texas.More</t>
   </si>
   <si>
+    <t>Steven W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r546325124-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>I would not stay here again, toilet was not clean and there was hair on the shower walls and I am bald, also lighting was horrible only ceiling lights no lamps, next time I visit my friends in Kaufman I'll stay at the Country Inn across the streetMore</t>
   </si>
   <si>
+    <t>Karen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r536538114-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>Nice, clean, family-oriented, friendly hotel with exceptional employees that make you feel at home. Would recommend this town of Kaufman, TX and this hotel to all traveling. I stay here twice or more a year, and always feel safe and comfortable in this hotel.More</t>
   </si>
   <si>
+    <t>tulsaphotography</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r535797519-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -420,6 +450,9 @@
     <t>The front desk staff "Tommy" were not accommodating at all.  The hotel is in a fine location if they only were accommodating. This has given a bad name to all Best Westerns. This used to be my favorite hotel chain. Not anymore.More</t>
   </si>
   <si>
+    <t>jackiegH6988RV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r535417809-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -444,6 +477,9 @@
     <t>The office staff and housekeeping were very friendly and helpful.  Room was clean and bed was comfortable.  Only complaint is the dim lighting in room especially over the vanity/sink area.  No table lamps by bed or on desk.More</t>
   </si>
   <si>
+    <t>kathykQ1833MF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r534197542-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -462,6 +498,9 @@
     <t>This place is so worth your money. Staff are out going. Wonderful night sleep. Cost to stay very reasonable. Fully recommend this place. Wonderful hot breakfast served. Easy to find location. Close to restaurants &amp; shopping More</t>
   </si>
   <si>
+    <t>Midwest416</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r522010636-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -489,6 +528,9 @@
     <t>I generally stay at Hampton Inn, Hilton Garden Inn or Holiday Inn Express but those were not options in Kaufman, so I booked my stay at this Best Western. The rooms are newly renovated, clean and comfortable. I was not interested in the breakfast offerings, but there is a Whataburger next door--and a Walmart behind the hotel so there are other options to find food. There is obvious pride in ownership here and if I had it to do over again, I sure would!More</t>
   </si>
   <si>
+    <t>dakotap299</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r508852369-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -516,6 +558,9 @@
     <t>We stay here every year for our family reunion always have a good stay would recommend to friends!!! Staff was very friendly as always...we always have a great stay here....my family always stays here...enjoy the pool More</t>
   </si>
   <si>
+    <t>kurtzie2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r495036986-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -543,6 +588,9 @@
     <t>This is a small, one-story, brick motel. Staff here is very friendly and helpful. Gentleman ran over to room to turn a/c on while we checked in so it would be cool sooner for us. Park-like area behind hotel that's great for dogs. Poor breakfast.More</t>
   </si>
   <si>
+    <t>Lynn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r492910741-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -561,6 +609,9 @@
     <t>The clerk was very friendly. I appreciated how he told us to have a good day each morning when we left the breakfast area. The room was comfortable and had everything we needed. The air conditioning worked and was necessary for a summer stay in Texas. The bed was a little on the firm side but I still slept soundly.More</t>
   </si>
   <si>
+    <t>lanab54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r487107055-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -588,6 +639,9 @@
     <t>When we arrive at the hotel the room was clean and fresh.The towel was stock as per our request ,We call the hotel few days before our arrival to make sure we have extra towel and they took care of it and we was so happy that our stay going to be pleasant.Thank you staff for the great work.More</t>
   </si>
   <si>
+    <t>899mirnaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r484375732-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -615,6 +669,9 @@
     <t>I nees to stay in kaufman for two night because of a medical procedure i was having done.I was needing more pilllow and towel and fhe staff was on top of it.Julie was soo nice and caring i was surprise. The room was clean and the bed was very comfortable.More</t>
   </si>
   <si>
+    <t>822aliciad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r483573270-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -639,6 +696,9 @@
     <t>Had a pleasant stay and breakfast had a great selection to choose from. Staff was very helpful and pleasant. pool and hot tub looked clean. Located withing walking distance of plenty of stores and restaurants.More</t>
   </si>
   <si>
+    <t>482carriey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r480122453-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -657,6 +717,9 @@
     <t>when we arrive at 1130am and the check in time was not until 3, the fornt desk person told us that we have to wait and we can have a seat in lobby. the few minute later manager tommy came and ask us if he can be help to us and we told him about the check in time. he personally went to housekeeping and help the housekeeper to make the room and get us in the room. while we wait they bake some fresh cookies for us. and that was special . thank you best western team.More</t>
   </si>
   <si>
+    <t>bejoweth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r477747843-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -681,6 +744,9 @@
     <t>I found it very dark in the room because of small recessed lighting only.  There was no table lamp or floor lamp anywhere in the room. I complained and was told they have ceiling lights only.  I was unable to read in the room.  Floor in lavatory area had not been vacuumed but  don't know about rest of room - too dark to see.  One wash cloth looked like it had been used to polish a brown shoe.  The clock beside the bed was not working.  I knew the breakfast bar did not open until 6:30.  Thought I might get a cup of coffee as I was leaving at 6:15.  Knocked on front door of motel, rang bell, BB lady came out, did not open door, pointed to sign saying BB didn't open until 6:30.  Did not offer the early morning "to go" breakfast.  I have stayed in other Best Westerns and this one is not Best Western quality that I'm familiar with.More</t>
   </si>
   <si>
+    <t>jeramym2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r477259944-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -699,6 +765,9 @@
     <t>When we checked in the hotel at 4 o'clock in the morning the front office person was fast at the check-in process and he saw us tired he offers soft drinks and water and also give some snacks to the kids. Since every thing is close.Breakfast person was also caring just like granny.We going to recommend to our friends.More</t>
   </si>
   <si>
+    <t>MICHAEL B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r471994924-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -720,6 +789,9 @@
     <t>Great service was given to our family when we late chechin at 2:30am.They gave extra pillow and towels for kids and also they give snack to little one.When we went for breakfast they welcome u s with open arm and heart.Thank you guys and we will let whole world that you guys are simply awesome More</t>
   </si>
   <si>
+    <t>V4498IKdenisec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r468176180-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -744,6 +816,9 @@
     <t>We travel with family and kids, I wish they had heated pool so kids can have fun on there trip.  Breakfast was great and waffle in shape of Texas with heart was perfect for kids.I will come back to this hotel in my future stay.More</t>
   </si>
   <si>
+    <t>jamessT3862SL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r450888148-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -771,6 +846,9 @@
     <t>Although, a little away from dallas city center, we chose same; as it was suiting our purpose. own transportation, would be a recommended point.  Hotel has good breakfast. Offers complimentary wi fi. Staff is courteous &amp; well mannered.More</t>
   </si>
   <si>
+    <t>leroym2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r450724722-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -789,6 +867,9 @@
     <t>We stay at this motel for funeral and the staff made us feel welcome and they took care of our need. even they help us setup up family gathering in the evening. Room are clean and fresh and housekeeper were helpful too.We want to thank hotel for having us.More</t>
   </si>
   <si>
+    <t>rhtaylor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r449698340-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -813,6 +894,9 @@
     <t>This place is in need of a huge remodel. Plus management does not care about complaints and seems to act as if you are a bother. Called corporate really no help. Will never ever stay there again. Will be staying in Tyler at the Hampton!More</t>
   </si>
   <si>
+    <t>amymF9988XM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r441625405-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -831,6 +915,9 @@
     <t>Hotel was staff with friendly and courteous  I was treated kindly in breakfast time. Happy with hotel and staff took care of my every need.Hotel had lots of people so we had hard time parking our camper.More</t>
   </si>
   <si>
+    <t>lrang</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r427271138-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -852,6 +939,9 @@
     <t>To start off, I arrived shortly after 10 pm. Apparently, they lock the lobby at 10 pm.  So I waited in the area outside the lobby for almost 20 minutes to be checked-in only to be told that the room was $9 dollars more than the original booking and they could not get their credit card machine to work correctly so I would need to come back to the office in the morning. Once I got to my room, the air was completely turned off and the windows were left completely open.  The faucet in the bathtub had a horrible leak that I could not get to stop.  The room had no lamps and horrible lighting.  The room was horribly kept.  I stripped back all of the sheets and blankets to check to make sure they were washed.  Fortunately they did appear to be clean.  The next morning when I went back to office to pay the extra $9 dollars I owed, I was meet my the man in the room next door and his large pitbull that was not leashed and not under his control.  When I made a complaint to the front desk about the dog and the room conditions, the man at the desk looked at me and said "so?".  This is the worst hotel experience I have had to date.More</t>
   </si>
   <si>
+    <t>123jeremyt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r387219010-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -873,6 +963,9 @@
     <t>I am here on business and stayed at this Best Western. It is very clean, comfortable, and has newly remodeled rooms. The owner and staff are pleasant. Short drive from Dallas and worth the price difference. Will be staying here again for next job.More</t>
   </si>
   <si>
+    <t>brightangels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r385373072-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -891,6 +984,9 @@
     <t>I was in a handicapped room because that was all that was left. The room was very clean, and the staff was very nice. The breakfast was good but the selection was average. But for free breakfast, I was happy.More</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r372670265-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1008,9 @@
     <t>Had a one night stay at the Best Western on east 175 in Kaufman in May 2016. My room had new carpet and paint. The bed was comfortable and the room was clean. The night stands were a bit worn, but otherwise the room looked fresh. The love seat sized couch looked and felt new. The room had standard amenities plus a ceiling fan which was nice. They also had a toothbrush and toothpaste plus shower cap included in the bathroom area. Everything electronic worked. They feature DirectTV and a small flat screen tv. Overall for a two star, small town place this was pretty nice. When I pass back through I'll stay there again.More</t>
   </si>
   <si>
+    <t>John A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r354480991-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -939,6 +1038,9 @@
     <t>I registered at this hotel for 2 nights and only styed 1 because the sheets were stained and I found a live bed bug in the middle of the night and 2 others that were dead. The sheets were clean, but stained in a few places. No lamps in the room and the overhead lighting was not very good. First and last time at this hotel.More</t>
   </si>
   <si>
+    <t>John G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r353752180-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1059,9 @@
     <t>Clean rooms. TV channels not working. Heating unit in one room didn't work, but it was quickly replaced. Noise from road was terrible. Breakfast was not better, or worse, than most other places that I have stayed.  Upon our arrival for check-in, the desk clerk was wearing a shirt that looked like he must have been changing the oil on his car before coming to the desk.  That got our entire stay off on the wrong foot.More</t>
   </si>
   <si>
+    <t>Woolf2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r353011851-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1080,9 @@
     <t>A friend and I went to Athens Tx. to look at Park Model trailers and saw the sign on the highway. I like Best Western as the rooms in my last 11 stays have been spacious. This particular location was a motel, there is a lot of construction on U S 175, on the service road in front of motel and a little noisy from the traffic but the price and location well make up for every thing else.More</t>
   </si>
   <si>
+    <t>Leticia M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r350158493-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -996,6 +1104,9 @@
     <t>It was clean. The bed was a tad firm. The light bulb in the bathroom flickered the whole time it was on. I would've reported it if I had to do anything but sleep there. The cleaning staff should've known it.More</t>
   </si>
   <si>
+    <t>Elton B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r328731409-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1128,9 @@
     <t>Ho hot water at the sink so i turned it on and everything was ok. No cover over bathroom powered vent. Door to bathroom would not close and latch. Various lights in the room appeared to be LED but did not work., Was really disappointed that this is a best western but it was not maintained in the quality i have experienced at the other Brst western hotels.More</t>
   </si>
   <si>
+    <t>J4053HWlees</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r328301742-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1149,9 @@
     <t>I enjoyed my stay at this facility. It is right off Texas State Highway 175 with easy access and is a great stopping point from OK City, OK to Houston, TX. All rooms open into parking allowing easy loading and unloading.More</t>
   </si>
   <si>
+    <t>Ramona C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r320696846-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1191,9 @@
     <t>Excellent location, breakfast, rooms, friendly, helpful staff. I stayed in a very nice room and it was the nicest room of any Best Westerns I have ever stayed in. You feel comfortable, safe, and at home at this hotel.More</t>
   </si>
   <si>
+    <t>Don M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r315220402-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1093,6 +1213,9 @@
   </si>
   <si>
     <t>Obviously not the Ritz-Carlton, but for a small-town motel, it was more than adequate.  The room was spotless and spacious, the king bed was very comfortable, and the wireless internet was fast.  One nice touch was finding the TV remote in a sanitized bag.  A 24-hour burger joint is one block east, a convenience store is one block west, and a Wal-Mart plus several specialty stores is one block south.  Freeway access is easy, but watch for 2-way traffic on the access road.  The free breakfast was just average, but filling.  Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>Samuel G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r314170058-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
@@ -1130,6 +1253,9 @@
 In the last few years I have...***UPDATE 9-27-15*** I waited quite a while before writing this. We stayed at the hotel on June 19th, 2015 and the Kaufman Hotel double charged me when they could not find my reservation. It is now September 27th and I still have not been credited for my stay.  I finally just filed a dispute with the credit card company and left another message for BW customer care.I would like to point out that since June 19th I have stayed roughly 38 nights in hotels for my business travels. NONE of them have been Best Western. I have had great luck at Hampton Inn, Hilton and Last week I just stayed at Loew’s Minneapolis and it was very nice.Best Western has really taken a dive and I cannot recommend it to anyone anymore.*****UPDATE*****You can find incredible Best Western properties that are clean and deliver service on par with the more elite hotels all over the Pacific NW.  In our family travels in the Pacific NW we became platinum members with BW due to this.Now with AirBnb coming on scene we book almost all of our family travels with Airbnb (and some of my business travel when possible.)However while we did have fond memories of BW in the Pacific NW we have found that the same standards found in the Pacific NW do not transfer to BW in TX.In the last few years I have stayed at Best Western 3 times. One night was in Houston and the hotel was so disgusting I checked out and paid again to stay at an Hilton location I found about 2 blocks away. Seriously the place was filthy disgusting!!!The second time was at a nicer Best Western in Arkansas to burn through some reward points that were just sitting around getting stale. This hotel was fairly nice, and would consider staying again to burn through points.Then there is tonight. We decided to come see some friends and stay the night in Kaufman, TX. Granted this is an extremely small country town with lower standards than you would find in the city, but it is a country town and after all country equates to a great work ethic and service correct?Well not so at the Kaufman BW. First, I wanted to use some surplus points for the stay, but for some reason that was not available online so I had to pay - no biggie only $100 - things are cheap in the country.Then we arrived at the Best Western Kaufman.It should be noted that there were no Airbnb properties available in Kaufman, TX as I checked and the other two hotels in the area looked extremely seedy - even online where everyone...More</t>
   </si>
   <si>
+    <t>Jane C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r300521626-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1151,6 +1277,9 @@
     <t>Since this was the only "nice" motel in Kaufman, it was recommended.  The staff was very pleasant and the rooms were very sufficient.  Certainly not a Five Star, but the price was reasonable and we would certainly stay again.More</t>
   </si>
   <si>
+    <t>Dana H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r294866549-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1172,6 +1301,9 @@
     <t>I was very happy with the breakfast, and the over all stay was pleasant. I had some work I had some work I had to do business related , I needed some staples pins at 1:30 in the morning and the Tommy with a smiling face gave it to me in the middle of the night.More</t>
   </si>
   <si>
+    <t>Niichael W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r278213438-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1193,6 +1325,9 @@
     <t>i stay alots of best western but this one had good size pool and employee was soo nice to us. they gave water gun to my brother so he can play and i never seen that any where. i will definetly will return to this hotel.More</t>
   </si>
   <si>
+    <t>Whonda K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r271470785-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1220,6 +1355,9 @@
     <t>we were here in this hotel for a family reunion.  they gave a breakfast room for us to meet and greet and also they provide coffee and water for all the family. only issue we had that maid didn't clean our room on time. I will stay here again for sure thank you team for making our stay enjoyableMore</t>
   </si>
   <si>
+    <t>Kathryn G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r270075557-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1376,9 @@
     <t>The Kitchen area was dirty all day. The water bottle was never filled for 3 days while we were there. The Front desk Men was always out side smoking, he acted like we interrupted him when we ask a question.  The Bath lights were off &amp; offMore</t>
   </si>
   <si>
+    <t>Wende D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r269598285-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1256,6 +1397,9 @@
     <t>We stayed two nights for our weekend in Canton. Our rooms were clean, freshly painted and well maintained. The beds were comfy and the air conditioning was cold! The breakfast was not great so we skipped it the second day. I would stay there again!More</t>
   </si>
   <si>
+    <t>Steven C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r268765533-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1274,6 +1418,9 @@
     <t>Arrived at 5 p.m. Said our room wasn't ready so put us in a different room. The room had not been cleaned. Garbage cans full, tv didn't work, control knob missing from heater, dead bugs in bathtub, floors were not cleaned. Room was horrible. Don't know why they put us in a different room since this room wasn't ready either. Had to change tv twice, never came and cleaned room after asking to and never brought the control knob.More</t>
   </si>
   <si>
+    <t>OLDTIMER51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r267264099-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1457,9 @@
     <t>Best Western in Kaufman is a very nice and friendly hotel to stay. Staff is kind, helpful, and makes you feel safe. Breakfast is good too! The rooms are very neat and clean, and the location of the hotel is good.More</t>
   </si>
   <si>
+    <t>Elizabeth O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r265597902-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1346,6 +1496,9 @@
     <t>great place to stay like to park in front of my room and all room on ground floor....would stay here any time...staff was very nice and friendly....they accommodated me by get me extra pillows. the pool area was very clean but a little to chilly out to test the water....More</t>
   </si>
   <si>
+    <t>Cdav2TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r258209929-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1367,6 +1520,9 @@
     <t>First and foremost, the staff was very helpful.  I was in a bind and they really worked to accommodate me.  The property itself is kind of dated but it appears they are in the process of updates; however the new overhead room lighting leaves a lot to be desired.  Other than that, the rooms were relatively clean and the free breakfast was average.  One bone to pick, I guess BW, in an effort to control energy costs, does not turn the A/C or heat on in preparation of your arrival.  Let us just say this is a problem when the outside temp is in the 20s.More</t>
   </si>
   <si>
+    <t>Kari B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r258197353-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1385,6 +1541,9 @@
     <t>Staff helped me with directions, turned on the heater in my room and had local dinner suggestions ready when I arrived. I had to cover a medical shift in the area due to an ice storm and they went above and beyond to be sure I was safe, warm and fed when I arrived form Dallas after a harrowing 3 hour commute in the snow.More</t>
   </si>
   <si>
+    <t>Robin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r255157669-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1409,6 +1568,9 @@
     <t>Shower great. Water pressure outstanding! Room tidy and laid out comfortably for open-suitcase and computer desk. Towels very soft for an economy room. Bed very comfortable, though the pillows were fiber-filled too much and too puffy to sleep on. Actually 2 creamers in each coffee packet! Woo Hoo! There was an odd odor in the room but soon overpowered by pot smokers outside. Eeeesh! The single-story layout of the grounds allows you to drive right up to your room, which seemed to encourage something resembling a drug operation in the room next door. Cars coming and going, honking and doors opening/closing throughout the night. There are other BW on either side of Kaufman which I will try next time around. Front desk clerk very kind and helpful!More</t>
   </si>
   <si>
+    <t>Z1187VSbarbaras</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r250122257-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1436,6 +1598,9 @@
     <t>very nice stay have to constantly redo the heat system room would become too warm turn off heat then room too cold during entire stay breakfast excellent staff friendly and very attentive definitely stay here againMore</t>
   </si>
   <si>
+    <t>Ramona W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r249667121-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1452,6 +1617,9 @@
   </si>
   <si>
     <t>Very warm friendly atmosphere.  Hotel staff was very nice, friendly and made you feel welcome.  Hot breakfast each morning and a selection of good coffee.  My thing is CLEAN! The rooms and hotel dining areas were very clean. We will stay there again if in that part of the country. Wore white socks in our room and you could see they were white on the bottom not black when taking them off.More</t>
+  </si>
+  <si>
+    <t>Amanda R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r249294357-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
@@ -1481,6 +1649,9 @@
 Tommy of course, was still not available to speak with. If I wasn't a Best Western Rewards member, I probably would not ever stay at another...The only nice thing I have to say about this hotel was the staff did the best they could with what they had. Tommy, the "manager" was incomprehensible from the word go. I made my reservation while we were on the road for the next day, with the thought in mind that we would make it that far the next day. When we found out that we would not be able to make it all the way to Kaufman, TX the next day, I called to change my reservation but Tommy absolutely would not allow me to change or cancel my reservation. Which I understand is his right to do so, but in the light of the fact that we were on our way to a funeral, he only made an already difficult situation worse. Once we got to the hotel, he of course was unavailable to speak to. The room stank of cigarettes in a "non smoking" room, there was no shower curtain and the bed sank in the middle so badly that my husband and I were practically on top of each other all night. All of the other employees were curtious and respectful, we had a new shower curtain within minutes and breakfast the next morning was not bad at all.Tommy of course, was still not available to speak with. If I wasn't a Best Western Rewards member, I probably would not ever stay at another one again.More</t>
   </si>
   <si>
+    <t>BPalmer94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r248102713-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1505,6 +1676,9 @@
     <t>Do not stay in this hotel. My friend and I stayed in this hotel from the 26th to the 28th of December, 2014. There were stains all over the room, most notably a 2 ft. diameter stain in front of the couch and possible blood stains in front of the sink. One roach was seen when we first entered the room, therefore we used a can of raid and slept with a few lights on. We also bought our own sheets and used those, and yet, three days later, $125 was taken out of my account because the hotel said that we stole there sheets...I pursued this with headquarters, but to no avail. These people are liars and cheats. More</t>
   </si>
   <si>
+    <t>Darla G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r242099813-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1547,6 +1721,9 @@
     <t>Best Western of Kaufman, Texas is a very clean, friendly, and safe hotel. The breakfast menu is delicious and is always hot and they go out of their way to have sugar free syrup. The general manager and staff are very friendly, helpful, and make you feel at home. I always feel comfortable and safe here travelling alone. It is convenient to business, shopping, and restaurants.More</t>
   </si>
   <si>
+    <t>Barbara M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r230632606-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1568,6 +1745,9 @@
     <t>I work nights in a nearby town.Every year the motel rooms in that town become unavailable to those who use it year round due to racing nationals.This is why I stayed at Best Western in Kaufman,Tx it was 27 miles away from my job, but better than driving the 85 miles back to my home each dayMore</t>
   </si>
   <si>
+    <t>utoometoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r221177730-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1589,6 +1769,9 @@
     <t>Clean property - good.  Light minimal in room--poor for reading.  Minimal light at sink.  Remote in a "fresh" bag but had to remove brown gunk from it before using it.  Bedskirt needed changing--had something on it. Two people/three pillows?  Towels worn and no longer soft.  Coffee at breakfast was good--toaster worked great.  Did have hot breakfast and waffles available.  You make your own decision whether to stay or not.  Not much to choose from in the area.More</t>
   </si>
   <si>
+    <t>Pat A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r215473360-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1613,6 +1796,9 @@
     <t>I could go on and on about how bad this place is.  Bottom line, it's not a hotel, it's a motel.  Rooms are clean, beds are fine.  Very noisy and don't expect help from the staff and don't expect to be able to have breakfast.  What the staff hasn't eaten before you is inedible.  If you need a room that won't be cleaned, but just someplace to lay your head, it's fine.  Not someplace to go to "enjoy" being in a hotel.More</t>
   </si>
   <si>
+    <t>Katherine C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r214226097-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1637,6 +1823,9 @@
     <t>We have stayed at this before when visiting friends in the area, however, this recent visit was the worst visit we had at any motel much-less this one.  Let me explain; We arrived at the motel around 2 PM, check in is at 1 PM, when we arrived the room still had not been cleaned.  The maid, then was rushing around to do it while we sat there, and she did not actually clean it.  She rushed through in about 5 to 10 minutes, and left.  We noticed stains on the bed and bed skirt, and my wife went to use the bathroom, and the toilet got backed up, and I had to shut off the water before it overflowed.  We then called the front desk and the attendant said that he would take care of it for us. We waited for a while and no one came, so we went ahead and left.  We arrived back to the room around 1 AM, and my wife went to use the toilet and the same thing happened and it did over flow filling up the bathroom floor and onto the carpet and was still running so I took the tank lid off again and shut the water off again, standing in dirty water.  My wife called the front desk and spoke with a lady working and she was very nice about the situation, and actually let me come in the office...We have stayed at this before when visiting friends in the area, however, this recent visit was the worst visit we had at any motel much-less this one.  Let me explain; We arrived at the motel around 2 PM, check in is at 1 PM, when we arrived the room still had not been cleaned.  The maid, then was rushing around to do it while we sat there, and she did not actually clean it.  She rushed through in about 5 to 10 minutes, and left.  We noticed stains on the bed and bed skirt, and my wife went to use the bathroom, and the toilet got backed up, and I had to shut off the water before it overflowed.  We then called the front desk and the attendant said that he would take care of it for us. We waited for a while and no one came, so we went ahead and left.  We arrived back to the room around 1 AM, and my wife went to use the toilet and the same thing happened and it did over flow filling up the bathroom floor and onto the carpet and was still running so I took the tank lid off again and shut the water off again, standing in dirty water.  My wife called the front desk and spoke with a lady working and she was very nice about the situation, and actually let me come in the office to use the bathroom at 1:30 that night, and said she would call the maintenance to come clean the mess up and fix the toilet. We asked if we could get another room, but she said there were none available and so we asked for our money back,  and she said she could not do anything about it that she would let the manager know.   So we waited until around 2;30 AM for someone to show up and take care of the problem, and still no one had. So we told the front desk attendant that we were not waiting for them any longer, and that it smelled really bad, and she said call back and speak to the manager he will be in at 8 AM in the morning. The next morning my wife called to speak with the manager and he was really rude, and said   that she clogged up the toilet, and she asked for his bosses name and number - and he would not give it to her.  We have never been so disrespected, and we will not recommend this motel to anyone of our friends or family, and will let everyone know that we speak to how we were treated by your employees.More</t>
   </si>
   <si>
+    <t>Fattire7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r211267071-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1658,6 +1847,9 @@
     <t>Rooms were clean but nothing fancy. The a/c worked well and the breakfast was good. This hotel is a little out dated but conveniently located near Wal-Mart and Whataburger. This Best Western is motor-court / motel style, so don't be surprised when you arrive. I'd stay again...or just stay in Terrell or Athens.More</t>
   </si>
   <si>
+    <t>Rodney D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r211172636-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1676,6 +1868,9 @@
     <t>In town for a wedding. Nice hotel for a small town. More things to do in Terrell, 10 mile drive. Staff was friendly, food was good. Service was good. Location was good. Would refer to a friend if staying in this town. Otherwise, drive on down to Terrell for more upscale hotels and more things to do.More</t>
   </si>
   <si>
+    <t>Rose m C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r209214634-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1694,6 +1889,9 @@
     <t>Room was very clean and the staff was very nice.  Breakfast was very very good and everything was very clean in breakfast area.  Robert was very helpful with any questions or problem.. Pool and hot tub was nice and clean.  Location was wonderful.  One problem was sheets, need to be softer. I like soft sheets. If I need to come back to Kaufman, TX,, I will stay at this motel. Thank you very much.More</t>
   </si>
   <si>
+    <t>Kai H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r208285528-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1715,6 +1913,9 @@
     <t>I would highly recommend the hotel to purchase new sheets and throw away the old blanket on the bed.  The sheets are extremely worn out. That being said, this is the only motel in Kaufman, so there are not any other options.  For the price, it's fine, but I hope they buy new sheets!.More</t>
   </si>
   <si>
+    <t>Susan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r205992845-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1733,6 +1934,9 @@
     <t>This hotel appears to be fairly new and maybe they are still working out the kinks.OK, but not up to Best West standards.The rooms are missing some furniture,one electric plug didn't work and the wifi worked sometimes.More</t>
   </si>
   <si>
+    <t>SusanB796</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r204755209-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1751,6 +1955,9 @@
     <t>This place is an absolute dump.  The individual checking us in looked like he had been on a 3 day drunk; unshaven, disheveled and irratible.  The room was well-worn, the A/C didn't work, and the ceiling fan only worked if the overhead lights were on.  When I called the front desk, the individual, who had checked us in, argued with us that the A/C did work.  Even though we had planned to stay 2 nights, we checked out after one.  The individual was still arguing with us at check out about the A/C.  For the second night, we stayed at the Best Western in Emory.  It was perfect; nice, clean rooms, good service, and A/C that worked.  If you're Canton bound..... steer clear of Kaufman Best Western!More</t>
   </si>
   <si>
+    <t>Larry G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r204231188-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1766,6 +1973,9 @@
     <t>The room was very clean, and appeared to be newly renovated. The staff was very nice and we had no problems. There was a very good breakfast every morning. We have stayed here in the past with friends and I would stay here again in a heartbeat.More</t>
   </si>
   <si>
+    <t>Jane W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r200297325-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1793,6 +2003,9 @@
     <t>Room rate was increased from the time of booking to check in. The Night manager told us we could leave and he would check us out if we did not like the rate he was giving us.  The Day manager did make a small correction at check out, but it was still not what we were quoted.More</t>
   </si>
   <si>
+    <t>Nookey F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r196119297-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1811,6 +2024,9 @@
     <t>The day manager was very nice. 3 ppl cost about $94. Check out time was 11, but we didn't have anything to do until 2pm when we were supposed to go to a funeral. They let us stay until 1pm at no charge. Rude: I went to get our free breakfast. I got made three plates and was about to return to the room. The day manager (not the one before) said rudely, your not supposed to take the food back to your room, then pointed out a sign that was about 4"x6". The rooms were clean and I'd stay there again. But next time I won't eat their breakfast. I'll go to Whataburger. They don't have a problem eating in my room. The sign posted should be bigger. After fixing the breakfast, and his piss poor attitude, I left all 3 breakfasts on the counter and went back to my room. He asked if I was going to take the food, so I just pointed and their little bitty sign and walked off. More</t>
   </si>
   <si>
+    <t>Dale L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r194478264-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1832,6 +2048,9 @@
     <t>The breakfast area was VERY dirty. There never was anyone present to care for the area. There never was any food. Not even waffle batter. Come on, how hard is it to put out waffle batter. The warming trays never had food in them. Only scraps. The milk always sat out getting warm. The room was nice and the bed was great but don't plan to eat at the motel.More</t>
   </si>
   <si>
+    <t>Pam A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r183526883-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1871,6 +2090,9 @@
     <t>My stays in Best Westerns in Texas have been very nice. The hotels were nice, staff friendly and helpful, went out of their way to accommodate me, and the price was fair. Good breakfasts in the morning too.More</t>
   </si>
   <si>
+    <t>Rhonda K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r178386178-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1892,6 +2114,9 @@
     <t>Overall our stay was enjoyable. We were not in the room much. Just in town for a wedding. They had just shampooed all the carpets in all the rooms, so our was damp when we arrived but fresh smelling. It did dry quickly. Breakfast was nothing to brag about but filling.More</t>
   </si>
   <si>
+    <t>Howard G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r178094218-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1910,6 +2135,9 @@
     <t>We really enjoyed our stay...such a comfortable room and pleasant people running the hotel made our stay in Llano, Tx much more enjoyable...We enjoyed our hike &amp; climb at Enchanted Rock and a wonderful rest at the hotel completes a great mini vacation for us...We greatly appreciated the pleasant and inviting atmosphere at this hotel!More</t>
   </si>
   <si>
+    <t>Sandra B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r162731004-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1937,6 +2165,9 @@
     <t>Generally good stay, but pool was green and the only person on duty was trying to fix, but really he should have had someone come out and fix.  The Jacuzzi tub in the room was not fully functionally - this should be checked before someone stays. Ice machine was out of ice-need more checks on so people do not take to much (ie ice chests)More</t>
   </si>
   <si>
+    <t>Harold A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r159820585-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1961,6 +2192,9 @@
     <t>So much highway noise you couldn't sleep.  The king bed was so old it rolled to the middle. The manager was almost rude.  i reserved 2 king rooms and one ws a queen. The manager called me at 7AM  to tell me there was a no show on my reservation.  I reserved 2 rooms and we were both there.  Then he wanted to charge me for a room for my brother in law who had inquired through the Best Western here in MO about room rates and had booked elsewhere.  In defense of the manager, he did cook a pretty good breakfast. The rooms seemed to be clean,.More</t>
   </si>
   <si>
+    <t>CharmaineOR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r157600846-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -1982,6 +2216,9 @@
     <t>I absolutely loved this hotel when I checked in.  It had everything I needed for a few days stay.  When I took a shower the next morning I noticed the toilet bowl was not clean on the outside, kind of toward the back and didn't want to venture a guess as to what was on it.  The maid immediately came and cleaned it up and I went about my day.  Then they missed cleaning my room and making my bed the second day.  So, it is a nice-looking hotel inside and out, but more attention to cleanliness needs to be exerted.More</t>
   </si>
   <si>
+    <t>Sparkymel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r155827951-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2000,6 +2237,9 @@
     <t>We have stayed at the Best Western, in Kaufman, several times. We love it! It's always clean, great service &amp; fresh hot breakfast. We always get the room with the jacuzzi tub. It has a mini fridge &amp; microwave.  Great value!More</t>
   </si>
   <si>
+    <t>77531gjt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r137306237-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2027,6 +2267,9 @@
     <t>Made our reservations under Best Western site so assumed it was Bestwestern!  Our reservation was for Aug. 14th (made on Aug. 12th)  We were in Kaufman on business but our plans got changed in the morning of the 14th so we went to the motel in person at 11:30 a.m to cancel.  We were informed that we had to have cancelled by JULY 3rd. in order to get a refund.......you have to be kidding me as July 3rd was 6 weeks before we had made the reservation!!!    We were also told that reservations were made thru Expedia!!!  Now I still have my confirmation email and nowhere on this email does it say anything about Expedia......just says Reservations.com.  I was told to call Expedia and cancel but to be aware that they (Expedia) would tell me that the motel would not honor the refund so they could not refund!!  Motel clerk.....maybe manager......said that would not be the case that they would be willing but Expedia would not be willing!!!   He gave me the number to call and he acted very surprised when we called from our cell right there in front of him!!  Well, Expedia did say they had to make sure it was o.k. with the motel and put me on hold while calling them!  Said manager tried to get his phone far enough away so we couldn't hear but we heard him tell Expedia that they could NOT refund...Made our reservations under Best Western site so assumed it was Bestwestern!  Our reservation was for Aug. 14th (made on Aug. 12th)  We were in Kaufman on business but our plans got changed in the morning of the 14th so we went to the motel in person at 11:30 a.m to cancel.  We were informed that we had to have cancelled by JULY 3rd. in order to get a refund.......you have to be kidding me as July 3rd was 6 weeks before we had made the reservation!!!    We were also told that reservations were made thru Expedia!!!  Now I still have my confirmation email and nowhere on this email does it say anything about Expedia......just says Reservations.com.  I was told to call Expedia and cancel but to be aware that they (Expedia) would tell me that the motel would not honor the refund so they could not refund!!  Motel clerk.....maybe manager......said that would not be the case that they would be willing but Expedia would not be willing!!!   He gave me the number to call and he acted very surprised when we called from our cell right there in front of him!!  Well, Expedia did say they had to make sure it was o.k. with the motel and put me on hold while calling them!  Said manager tried to get his phone far enough away so we couldn't hear but we heard him tell Expedia that they could NOT refund our money that they knew about the July 3rd rule!!  We confronted him about what he said and he told us that Expedia could refund us if they wanted to but he was not going to give Expedia back any money if they did!!!   By the way, this IS a scam/racket apparently between Expedia and this Best Western!   Well, Expedia called back and said Best Western would not refund and that the July 3 rule applied.  Well, after some heated exchange telling them that that was 6 weeks before we even made the reservations and telling them that we would report them as this is a scam where each one blames the other and hopefully the customer will just forget it!!   And that we would follow through and even sue if necessary, Expedia agreed to give us our money back (sending me a confirmation email and the next day the refund showed up at the bank!!!   But the manager at the Best Western informed us that in no way would Expedia get the money back from him..........they will not get any refund from his motel!!  We travel for business all over the U.S. and you can always cancel the same day as long as doing it before 6:00 p.m.     As I said before, this is a scam/racket between Expedia/BestWestern...More</t>
   </si>
   <si>
+    <t>conanhenry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r129470467-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2051,6 +2294,9 @@
     <t>Service was good. Room was clean and updated for such an old building. Hot breakfast buffet was good, but definitely a little neglected. The buffet area looked like it had been unmanned for at least an hour. The only big complaint was the empty pool. My seven year old daughter was very disappointed that we were not going to be able to swim on our trip. I really have a problem with advertising a pool as an amenitie when the pool has no water.More</t>
   </si>
   <si>
+    <t>UnitedStatesSue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r125212387-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2078,6 +2324,9 @@
     <t>this is undoubtedly the worst of all the Best Westerns that I have stayed in. The sheets were stained and they were not clean by any means. never make reservations there!More</t>
   </si>
   <si>
+    <t>ELP-86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r124885699-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2102,6 +2351,9 @@
     <t>I was starting to wonder if there were still such a thing as good customer service. The staff was absolutely outstanding.  They were professional, courteous, accommodating...absolutely top notch!  The facilities and room were great.  Couldn't imagine a better stay...unless of course if it were free!More</t>
   </si>
   <si>
+    <t>kumonforneytx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r122468071-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2129,6 +2381,9 @@
     <t>Picked this place after reading reviews for many other hotels in your area. It was a great choice for our week in small town in kaufman tx. hotel Very safe, clean and great staff. your breakfast was very very different then all the hotel i have stayed in past. the spanish egg (eggs, sausage, tomato, chills and onion) was great and also u provide tortila and  cheese. Hotel even has a nice computer and printer that customers can use in the lobby by check in desk. Great location for restaurants.More</t>
   </si>
   <si>
+    <t>lawrence h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r122414139-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2147,6 +2402,9 @@
     <t>We were quite comfortable in this hotel and location was just right. I would love to recommend this hotel also to every body.More</t>
   </si>
   <si>
+    <t>smirza1979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r122365461-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2171,6 +2429,9 @@
     <t>we book hotel thru hotel.com and the they booked us for smoking kind bed and when we check it at hotel the front desk gave us key for smoking room and i went back to office and spoke to manager and he gave us nonsmoking room. he also told us that he cant change the room because what ever he get from hotel.com he have to honor it. but he made a exception for us because i have a infant with us.thanks you best western kaufman tx.you just made me your loyal guest.More</t>
   </si>
   <si>
+    <t>RetiredCuero_tx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r120206705-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2189,6 +2450,9 @@
     <t>Reservations messed up and had made them five wks. in advance. Wifi very slow when it worked which wasn't very often. Breakfast good but room only has three tables. OK for over night stay if going to Canton Trade Days.More</t>
   </si>
   <si>
+    <t>Sterling R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r119567538-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2213,6 +2477,9 @@
     <t>I recently stayed in the La Hacienda Best Western in Kaufman, Texas and was extremely pleased with the staff and accomodations. It was quiet, clean, comfortable, and easy to do business with. I will definitely recommend them and use them for future travels to that area. Great experience!!!More</t>
   </si>
   <si>
+    <t>Doctorandprincess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r117600077-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2234,6 +2501,9 @@
     <t>We were welcomed warmly.One day our battery went dead and the staff gave us a jump without hesitation.Another night our child decided to wet the bed. *sigh* So embarrassing.  They didn't say a thing. :)We needed clean sheets late at night another night before we were even asleep because another child had an accident from jumping on the bed (grr....) and there was blood from his owie.  Staff even sent a bandaid and wipes. :)Pool was clean.Property, even though close to highway, was very quiet.  We felt very safe.Requested a late checkout, they gave us an extra hour.Breakfast was less than desirable.  They had good intentions.  Everything was laid out with many choices. (Think Hampton Inn style.)  But food was not up-to-par.We had a good stay.  We would stay there again the next time we go visit family in the country.More</t>
   </si>
   <si>
+    <t>Dimple P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r117025272-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2252,6 +2522,9 @@
     <t>Thank you to the staff member that went above and beyond! Really loved the way I was treated since I walked into the lobby, I felt welcomed. Haven't stayed in a room since a long time which is absolutely clean. Fresh sheets, clean bathroom , and a refreshing room scent. Housekeeping does a great job.  Requested extra towels &amp; pillow which was delivered to the room within mins. Hot Breakfast was good.More</t>
   </si>
   <si>
+    <t>Kandice J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r116898862-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2270,6 +2543,9 @@
     <t>I traveled to Kaufman on business and arrived at 8pm. when i checked into my room the room was 107 degrees hot and i had to use the bathroom facilities and grime was visible in the bottom of the commode. Thinking i am tired from my drive i went to get into thd and e shower...there was hairs in the shower as if someone just stepped out of it. I then pull the sheets back on the bed and there is lipstick and foundation on the sheets, i go to the front desk and the attendant states "they did clean the room". I was given new sheets to change my bed. I did enjoy my stay in Kaufman, Tx however, i will never stay at this hotel !!!!More</t>
   </si>
   <si>
+    <t>duicot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r114686050-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2288,6 +2564,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>KBKoonce</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r100205905-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2306,6 +2585,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>ellenrifanburg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r88575814-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2324,6 +2606,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>PortAMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r32808532-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2342,6 +2627,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>marquisTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r18275433-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
   </si>
   <si>
@@ -2358,6 +2646,9 @@
   </si>
   <si>
     <t>July 2008</t>
+  </si>
+  <si>
+    <t>TravelAdvisor200708</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56063-d73413-r10036781-Best_Western_La_Hacienda_Inn-Kaufman_Texas.html</t>
@@ -2877,43 +3168,47 @@
       <c r="A2" t="n">
         <v>39117</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>120626</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2935,56 +3230,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39117</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>14625</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -3006,56 +3305,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39117</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>120627</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3067,56 +3370,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39117</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>120628</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3128,56 +3435,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39117</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>101074</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3189,56 +3500,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39117</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>120629</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -3260,56 +3575,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39117</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>22496</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -3331,56 +3650,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39117</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>5223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -3402,56 +3725,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39117</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3473,56 +3800,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39117</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>120630</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3540,56 +3871,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39117</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>120631</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3611,56 +3946,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39117</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>120632</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3682,56 +4021,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39117</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>120633</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3749,56 +4092,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39117</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>120634</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3820,56 +4167,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39117</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>120635</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3891,56 +4242,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39117</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3960,56 +4315,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39117</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>120636</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -4031,56 +4390,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39117</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>120637</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4102,56 +4465,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39117</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>120638</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
+        <v>222</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>203</v>
       </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>186</v>
-      </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -4173,56 +4540,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="X20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39117</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>120639</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4244,56 +4615,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="X21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39117</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>120640</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -4309,56 +4684,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39117</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>120641</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4380,56 +4759,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="X23" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Y23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39117</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>120642</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="L24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4451,56 +4834,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="X24" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Y24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39117</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>120643</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="K25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="L25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4522,56 +4909,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39117</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>120644</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4593,56 +4984,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="X26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="Y26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39117</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>120645</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4664,56 +5059,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="X27" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39117</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>120646</v>
+      </c>
+      <c r="C28" t="s">
+        <v>283</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="J28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="K28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4725,56 +5124,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="X28" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39117</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>120647</v>
+      </c>
+      <c r="C29" t="s">
+        <v>292</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4796,56 +5199,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X29" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39117</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>120648</v>
+      </c>
+      <c r="C30" t="s">
+        <v>299</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4863,56 +5270,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X30" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>39117</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>120649</v>
+      </c>
+      <c r="C31" t="s">
+        <v>307</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="K31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4924,56 +5335,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X31" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39117</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>120650</v>
+      </c>
+      <c r="C32" t="s">
+        <v>315</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4991,56 +5406,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X32" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>39117</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C33" t="s">
+        <v>322</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="J33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="K33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="L33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="O33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5056,56 +5475,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X33" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39117</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>17056</v>
+      </c>
+      <c r="C34" t="s">
+        <v>330</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="J34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="K34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="L34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -5127,56 +5550,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="X34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="Y34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39117</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>340</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="K35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="L35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="O35" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -5198,56 +5625,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="X35" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39117</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>120651</v>
+      </c>
+      <c r="C36" t="s">
+        <v>347</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="K36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5269,56 +5700,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="X36" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="Y36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39117</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>108313</v>
+      </c>
+      <c r="C37" t="s">
+        <v>354</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="J37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="K37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="L37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="O37" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -5340,56 +5775,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="X37" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="Y37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>39117</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>120652</v>
+      </c>
+      <c r="C38" t="s">
+        <v>362</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="J38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="K38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="L38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -5411,56 +5850,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X38" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>39117</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>120653</v>
+      </c>
+      <c r="C39" t="s">
+        <v>370</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="J39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="K39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="L39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5482,56 +5925,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X39" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39117</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>26914</v>
+      </c>
+      <c r="C40" t="s">
+        <v>377</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="O40" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5549,56 +5996,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X40" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39117</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="J41" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="K41" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="L41" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5620,56 +6071,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X41" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y41" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39117</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>34636</v>
+      </c>
+      <c r="C42" t="s">
+        <v>391</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="J42" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="K42" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5687,56 +6142,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X42" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y42" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>39117</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>76949</v>
+      </c>
+      <c r="C43" t="s">
+        <v>399</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="J43" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="K43" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="L43" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5752,56 +6211,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X43" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y43" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>39117</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>58734</v>
+      </c>
+      <c r="C44" t="s">
+        <v>407</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="J44" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="K44" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="L44" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5823,56 +6286,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X44" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y44" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>39117</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>34873</v>
+      </c>
+      <c r="C45" t="s">
+        <v>415</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="J45" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="K45" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="L45" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5894,56 +6361,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X45" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y45" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>39117</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>120654</v>
+      </c>
+      <c r="C46" t="s">
+        <v>423</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="J46" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="K46" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="L46" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5963,56 +6434,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X46" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y46" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>39117</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>120655</v>
+      </c>
+      <c r="C47" t="s">
+        <v>431</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="J47" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="K47" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="L47" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -6034,56 +6509,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X47" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y47" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>39117</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>72135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>441</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="J48" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="K48" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="L48" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -6105,47 +6584,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X48" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y48" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>39117</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>120656</v>
+      </c>
+      <c r="C49" t="s">
+        <v>448</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="J49" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="K49" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="L49" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -6162,56 +6645,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X49" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y49" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>39117</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>10823</v>
+      </c>
+      <c r="C50" t="s">
+        <v>455</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="J50" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="K50" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="L50" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -6233,56 +6720,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X50" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y50" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>39117</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>48476</v>
+      </c>
+      <c r="C51" t="s">
+        <v>462</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="J51" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="K51" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="L51" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -6304,56 +6795,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X51" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y51" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>39117</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="J52" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="K52" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="L52" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6375,56 +6870,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X52" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y52" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>39117</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>18288</v>
+      </c>
+      <c r="C53" t="s">
+        <v>475</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="J53" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="K53" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="L53" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="O53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6446,56 +6945,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X53" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y53" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>39117</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>14625</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="J54" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="K54" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="L54" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="O54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6517,56 +7020,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X54" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y54" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>39117</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>120657</v>
+      </c>
+      <c r="C55" t="s">
+        <v>488</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="J55" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="K55" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="L55" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="O55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6578,56 +7085,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X55" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y55" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>39117</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>33669</v>
+      </c>
+      <c r="C56" t="s">
+        <v>496</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="J56" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="K56" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="L56" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6649,56 +7160,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X56" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y56" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>39117</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>503</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="J57" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="K57" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="L57" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6720,56 +7235,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="X57" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="Y57" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>39117</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>120658</v>
+      </c>
+      <c r="C58" t="s">
+        <v>512</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="J58" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="K58" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="L58" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="O58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6791,56 +7310,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="X58" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="Y58" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>39117</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>120659</v>
+      </c>
+      <c r="C59" t="s">
+        <v>522</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="J59" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="K59" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="L59" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="O59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6862,56 +7385,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="X59" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="Y59" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>39117</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>14315</v>
+      </c>
+      <c r="C60" t="s">
+        <v>529</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="J60" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="K60" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="L60" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="O60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6927,47 +7454,51 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="X60" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="Y60" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>39117</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>120660</v>
+      </c>
+      <c r="C61" t="s">
+        <v>537</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="J61" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="K61" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="L61" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
@@ -6994,56 +7525,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="X61" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="Y61" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>39117</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>27932</v>
+      </c>
+      <c r="C62" t="s">
+        <v>546</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="J62" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="K62" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="L62" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="O62" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -7059,56 +7594,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="X62" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="Y62" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>39117</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="J63" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="K63" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="L63" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="O63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7130,56 +7669,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="X63" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="Y63" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>39117</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>11147</v>
+      </c>
+      <c r="C64" t="s">
+        <v>561</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="J64" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="K64" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="L64" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="O64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -7201,56 +7744,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="X64" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="Y64" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>39117</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>120661</v>
+      </c>
+      <c r="C65" t="s">
+        <v>569</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="J65" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="K65" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="L65" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="O65" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -7266,56 +7813,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="X65" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="Y65" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>39117</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>68767</v>
+      </c>
+      <c r="C66" t="s">
+        <v>577</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="J66" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="K66" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="L66" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="O66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -7337,56 +7888,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="X66" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="Y66" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>39117</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>12008</v>
+      </c>
+      <c r="C67" t="s">
+        <v>586</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="J67" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="K67" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="L67" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="O67" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -7408,56 +7963,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="X67" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="Y67" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>39117</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>120662</v>
+      </c>
+      <c r="C68" t="s">
+        <v>595</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="J68" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="K68" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="L68" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="O68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7469,56 +8028,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="X68" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="Y68" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>39117</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C69" t="s">
+        <v>603</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="J69" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="K69" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="L69" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="O69" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7540,56 +8103,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="X69" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="Y69" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>39117</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>120663</v>
+      </c>
+      <c r="C70" t="s">
+        <v>610</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="J70" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="K70" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
       <c r="L70" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="O70" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7611,56 +8178,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="X70" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="Y70" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>39117</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>120664</v>
+      </c>
+      <c r="C71" t="s">
+        <v>617</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="J71" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="K71" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="L71" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="O71" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -7680,56 +8251,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="X71" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="Y71" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>39117</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>1783</v>
+      </c>
+      <c r="C72" t="s">
+        <v>625</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="J72" t="s">
-        <v>561</v>
+        <v>628</v>
       </c>
       <c r="K72" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="L72" t="s">
-        <v>563</v>
+        <v>630</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="O72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7751,56 +8326,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="X72" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="Y72" t="s">
-        <v>564</v>
+        <v>631</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>39117</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>120665</v>
+      </c>
+      <c r="C73" t="s">
+        <v>632</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="J73" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="K73" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
       <c r="L73" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="O73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -7822,56 +8401,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="X73" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="Y73" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>39117</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>40343</v>
+      </c>
+      <c r="C74" t="s">
+        <v>639</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="J74" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="K74" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="L74" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="O74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7893,56 +8476,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X74" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y74" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>39117</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>48685</v>
+      </c>
+      <c r="C75" t="s">
+        <v>645</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="J75" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="K75" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="L75" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="O75" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7964,47 +8551,51 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="X75" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="Y75" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>39117</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>120666</v>
+      </c>
+      <c r="C76" t="s">
+        <v>655</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
       <c r="J76" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="K76" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="L76" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
@@ -8021,56 +8612,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X76" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y76" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>39117</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>12279</v>
+      </c>
+      <c r="C77" t="s">
+        <v>662</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="J77" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="K77" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="L77" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="O77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -8092,56 +8687,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X77" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y77" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>39117</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>16637</v>
+      </c>
+      <c r="C78" t="s">
+        <v>670</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>598</v>
+        <v>671</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="J78" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="K78" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="L78" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="O78" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8163,56 +8762,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X78" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y78" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>39117</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>2656</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="J79" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="K79" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="L79" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="O79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8234,56 +8837,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X79" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y79" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>39117</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>71380</v>
+      </c>
+      <c r="C80" t="s">
+        <v>684</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
       <c r="J80" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
       <c r="K80" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="L80" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="O80" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8305,56 +8912,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X80" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y80" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>39117</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>102963</v>
+      </c>
+      <c r="C81" t="s">
+        <v>692</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="J81" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="K81" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="L81" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="O81" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8376,56 +8987,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X81" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y81" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>39117</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>8065</v>
+      </c>
+      <c r="C82" t="s">
+        <v>699</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="J82" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="K82" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="L82" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="O82" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8447,56 +9062,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="X82" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="Y82" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>39117</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>89401</v>
+      </c>
+      <c r="C83" t="s">
+        <v>709</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="J83" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="K83" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="L83" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="O83" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8518,56 +9137,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="X83" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="Y83" t="s">
-        <v>640</v>
+        <v>717</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>39117</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>120667</v>
+      </c>
+      <c r="C84" t="s">
+        <v>718</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="J84" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="K84" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
       <c r="L84" t="s">
-        <v>645</v>
+        <v>723</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="O84" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -8589,47 +9212,51 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="X84" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="Y84" t="s">
-        <v>647</v>
+        <v>725</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>39117</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>120668</v>
+      </c>
+      <c r="C85" t="s">
+        <v>726</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="J85" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="K85" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="L85" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
@@ -8656,56 +9283,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="X85" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="Y85" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>39117</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>120669</v>
+      </c>
+      <c r="C86" t="s">
+        <v>733</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="J86" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="K86" t="s">
-        <v>657</v>
+        <v>737</v>
       </c>
       <c r="L86" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="O86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8717,47 +9348,51 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="X86" t="s">
-        <v>661</v>
+        <v>741</v>
       </c>
       <c r="Y86" t="s">
-        <v>662</v>
+        <v>742</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>39117</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>120670</v>
+      </c>
+      <c r="C87" t="s">
+        <v>743</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="J87" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="K87" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
       <c r="L87" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
@@ -8784,56 +9419,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="X87" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="Y87" t="s">
-        <v>670</v>
+        <v>751</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>39117</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>120671</v>
+      </c>
+      <c r="C88" t="s">
+        <v>752</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
       <c r="J88" t="s">
-        <v>673</v>
+        <v>755</v>
       </c>
       <c r="K88" t="s">
-        <v>674</v>
+        <v>756</v>
       </c>
       <c r="L88" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="O88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P88" t="n">
         <v>1</v>
@@ -8855,56 +9494,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="X88" t="s">
-        <v>678</v>
+        <v>760</v>
       </c>
       <c r="Y88" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>39117</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>120672</v>
+      </c>
+      <c r="C89" t="s">
+        <v>762</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>680</v>
+        <v>763</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="J89" t="s">
-        <v>682</v>
+        <v>765</v>
       </c>
       <c r="K89" t="s">
-        <v>683</v>
+        <v>766</v>
       </c>
       <c r="L89" t="s">
-        <v>684</v>
+        <v>767</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="O89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8926,56 +9569,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>685</v>
+        <v>768</v>
       </c>
       <c r="X89" t="s">
-        <v>686</v>
+        <v>769</v>
       </c>
       <c r="Y89" t="s">
-        <v>687</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>39117</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>120673</v>
+      </c>
+      <c r="C90" t="s">
+        <v>771</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>688</v>
+        <v>772</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>689</v>
+        <v>773</v>
       </c>
       <c r="J90" t="s">
-        <v>690</v>
+        <v>774</v>
       </c>
       <c r="K90" t="s">
-        <v>691</v>
+        <v>775</v>
       </c>
       <c r="L90" t="s">
-        <v>692</v>
+        <v>776</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>693</v>
+        <v>777</v>
       </c>
       <c r="O90" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8997,56 +9644,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>694</v>
+        <v>778</v>
       </c>
       <c r="X90" t="s">
-        <v>695</v>
+        <v>779</v>
       </c>
       <c r="Y90" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>39117</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>120674</v>
+      </c>
+      <c r="C91" t="s">
+        <v>781</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>697</v>
+        <v>782</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>698</v>
+        <v>783</v>
       </c>
       <c r="J91" t="s">
-        <v>699</v>
+        <v>784</v>
       </c>
       <c r="K91" t="s">
-        <v>700</v>
+        <v>785</v>
       </c>
       <c r="L91" t="s">
-        <v>701</v>
+        <v>786</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>693</v>
+        <v>777</v>
       </c>
       <c r="O91" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9068,56 +9719,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X91" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y91" t="s">
-        <v>702</v>
+        <v>787</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>39117</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>120675</v>
+      </c>
+      <c r="C92" t="s">
+        <v>788</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>703</v>
+        <v>789</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>704</v>
+        <v>790</v>
       </c>
       <c r="J92" t="s">
-        <v>705</v>
+        <v>791</v>
       </c>
       <c r="K92" t="s">
-        <v>706</v>
+        <v>792</v>
       </c>
       <c r="L92" t="s">
-        <v>707</v>
+        <v>793</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>693</v>
+        <v>777</v>
       </c>
       <c r="O92" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9139,47 +9794,51 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>708</v>
+        <v>794</v>
       </c>
       <c r="X92" t="s">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="Y92" t="s">
-        <v>710</v>
+        <v>796</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>39117</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>120676</v>
+      </c>
+      <c r="C93" t="s">
+        <v>797</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>711</v>
+        <v>798</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>712</v>
+        <v>799</v>
       </c>
       <c r="J93" t="s">
-        <v>713</v>
+        <v>800</v>
       </c>
       <c r="K93" t="s">
-        <v>714</v>
+        <v>801</v>
       </c>
       <c r="L93" t="s">
-        <v>715</v>
+        <v>802</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
@@ -9206,56 +9865,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>708</v>
+        <v>794</v>
       </c>
       <c r="X93" t="s">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="Y93" t="s">
-        <v>716</v>
+        <v>803</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>39117</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>120677</v>
+      </c>
+      <c r="C94" t="s">
+        <v>804</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>717</v>
+        <v>805</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>718</v>
+        <v>806</v>
       </c>
       <c r="J94" t="s">
-        <v>719</v>
+        <v>807</v>
       </c>
       <c r="K94" t="s">
-        <v>720</v>
+        <v>808</v>
       </c>
       <c r="L94" t="s">
-        <v>721</v>
+        <v>809</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>722</v>
+        <v>810</v>
       </c>
       <c r="O94" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9277,56 +9940,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>723</v>
+        <v>811</v>
       </c>
       <c r="X94" t="s">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="Y94" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>39117</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>120678</v>
+      </c>
+      <c r="C95" t="s">
+        <v>813</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>725</v>
+        <v>814</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>726</v>
+        <v>815</v>
       </c>
       <c r="J95" t="s">
-        <v>727</v>
+        <v>816</v>
       </c>
       <c r="K95" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="L95" t="s">
-        <v>729</v>
+        <v>818</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="O95" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -9344,56 +10011,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X95" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y95" t="s">
-        <v>731</v>
+        <v>820</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>39117</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>120679</v>
+      </c>
+      <c r="C96" t="s">
+        <v>821</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>732</v>
+        <v>822</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>733</v>
+        <v>823</v>
       </c>
       <c r="J96" t="s">
-        <v>734</v>
+        <v>824</v>
       </c>
       <c r="K96" t="s">
-        <v>735</v>
+        <v>825</v>
       </c>
       <c r="L96" t="s">
-        <v>736</v>
+        <v>826</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="O96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9411,56 +10082,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="X96" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="Y96" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>39117</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>120680</v>
+      </c>
+      <c r="C97" t="s">
+        <v>828</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>738</v>
+        <v>829</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>739</v>
+        <v>830</v>
       </c>
       <c r="J97" t="s">
-        <v>740</v>
+        <v>831</v>
       </c>
       <c r="K97" t="s">
-        <v>741</v>
+        <v>832</v>
       </c>
       <c r="L97" t="s">
-        <v>742</v>
+        <v>833</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="O97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -9478,50 +10153,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>743</v>
+        <v>834</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>39117</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>120681</v>
+      </c>
+      <c r="C98" t="s">
+        <v>835</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>744</v>
+        <v>836</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>745</v>
+        <v>837</v>
       </c>
       <c r="J98" t="s">
-        <v>746</v>
+        <v>838</v>
       </c>
       <c r="K98" t="s">
-        <v>747</v>
+        <v>839</v>
       </c>
       <c r="L98" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="O98" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9541,50 +10220,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>39117</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>120682</v>
+      </c>
+      <c r="C99" t="s">
+        <v>842</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>750</v>
+        <v>843</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>751</v>
+        <v>844</v>
       </c>
       <c r="J99" t="s">
-        <v>752</v>
+        <v>845</v>
       </c>
       <c r="K99" t="s">
-        <v>753</v>
+        <v>846</v>
       </c>
       <c r="L99" t="s">
-        <v>754</v>
+        <v>847</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>755</v>
+        <v>848</v>
       </c>
       <c r="O99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P99" t="n">
         <v>1</v>
@@ -9608,50 +10291,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>754</v>
+        <v>847</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>39117</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>120683</v>
+      </c>
+      <c r="C100" t="s">
+        <v>849</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>756</v>
+        <v>850</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>757</v>
+        <v>851</v>
       </c>
       <c r="J100" t="s">
-        <v>758</v>
+        <v>852</v>
       </c>
       <c r="K100" t="s">
-        <v>759</v>
+        <v>853</v>
       </c>
       <c r="L100" t="s">
-        <v>760</v>
+        <v>854</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>761</v>
+        <v>855</v>
       </c>
       <c r="O100" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9675,50 +10362,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>760</v>
+        <v>854</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>39117</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>120684</v>
+      </c>
+      <c r="C101" t="s">
+        <v>856</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>762</v>
+        <v>857</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>763</v>
+        <v>858</v>
       </c>
       <c r="J101" t="s">
-        <v>764</v>
+        <v>859</v>
       </c>
       <c r="K101" t="s">
-        <v>765</v>
+        <v>860</v>
       </c>
       <c r="L101" t="s">
-        <v>766</v>
+        <v>861</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>767</v>
+        <v>862</v>
       </c>
       <c r="O101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9742,50 +10433,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>766</v>
+        <v>861</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>39117</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>120685</v>
+      </c>
+      <c r="C102" t="s">
+        <v>863</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>768</v>
+        <v>864</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>769</v>
+        <v>865</v>
       </c>
       <c r="J102" t="s">
-        <v>770</v>
+        <v>866</v>
       </c>
       <c r="K102" t="s">
-        <v>771</v>
+        <v>867</v>
       </c>
       <c r="L102" t="s">
-        <v>772</v>
+        <v>868</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>773</v>
+        <v>869</v>
       </c>
       <c r="O102" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9809,41 +10504,45 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>772</v>
+        <v>868</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>39117</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>120686</v>
+      </c>
+      <c r="C103" t="s">
+        <v>870</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>774</v>
+        <v>871</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>775</v>
+        <v>872</v>
       </c>
       <c r="J103" t="s">
-        <v>776</v>
+        <v>873</v>
       </c>
       <c r="K103" t="s">
-        <v>777</v>
+        <v>874</v>
       </c>
       <c r="L103" t="s">
-        <v>778</v>
+        <v>875</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
@@ -9862,7 +10561,7 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>778</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
